--- a/prompt_image.xlsx
+++ b/prompt_image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0428B6-E7D8-4EAC-AE39-78ACDFAF2407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931D35C-1FC0-4225-BDB3-0CAB86619CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1665" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="960" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
@@ -28,25 +28,22 @@
     <t>PROMPT</t>
   </si>
   <si>
-    <t>Kaela standing before the mysterious pod</t>
-  </si>
-  <si>
-    <t>A beautiful sunset over the ocean</t>
-  </si>
-  <si>
-    <t>A cat playing with a ball of yarn</t>
-  </si>
-  <si>
-    <t>A futuristic city with flying cars</t>
-  </si>
-  <si>
-    <t>A peaceful forest with sunlight filtering through trees</t>
-  </si>
-  <si>
     <t>IMAGE</t>
   </si>
   <si>
-    <t>C:\Users\LYN HIEN\Downloads\photo_2022-03-22_11-06-59.jpg</t>
+    <t>C:\Users\LYN HIEN\Downloads\photo_2025-09-09_08-56-44.jpg</t>
+  </si>
+  <si>
+    <t>1. The Shadow of the Steel Clan
+In a futuristic world where animal-human hybrids protect the last remnants of civilization, a small yet fierce warrior named Kaito stands ready for battle. Clad in a sleek black samurai outfit, Kaito is a member of the Steel Clan, a secret group of elite fighters. Known for his sharp reflexes and unparalleled combat skills, he is tasked with defending his city from a new wave of mechanized invaders. As tensions rise, Kaito discovers that the invaders are not just machines, but remnants of an ancient, forgotten enemy with ties to his own family. To protect the future of his people, Kaito must delve into his family’s dark past and confront the truth of his lineage.</t>
+  </si>
+  <si>
+    <t>2. The Last Samurai of Aether City
+Aether City, once a utopia, now lies in ruins. The technological advancements of its creators have led to chaos, and the once-thriving metropolis is a shadow of its former self. Amid the ruins, a young warrior known only as Taro, wearing a reflective armor and carrying a katana, searches for the secrets hidden deep within the city. With a mission to restore peace, Taro is the last of a forgotten order of samurai who once maintained the balance of technology and nature. Now, he must face rival factions who seek to control the remnants of the city's advanced tech, and battle against those who wish to use the power to reshape the world in their own image.</t>
+  </si>
+  <si>
+    <t>3. The Cyberninja Uprising
+In the neon-lit streets of Neo-Tokyo, the underworld thrives under the control of powerful corporations. However, a group of rebels known as the Cyberninjas are determined to bring down the corrupt empire. Among them is a warrior named Sora, a genetically-enhanced mouse-like fighter who was once a corporate enforcer but turned against his creators after uncovering their dark secrets. Donned in a sleek, black samurai robe, Sora leads the charge in an epic fight to liberate the people of Neo-Tokyo. As he fights for freedom, Sora must confront his own internal struggles about loyalty, identity, and the fine line between man and machine.</t>
   </si>
 </sst>
 </file>
@@ -151,10 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -375,7 +372,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -396,63 +393,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -636,7 +619,9 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
@@ -723,13 +708,13 @@
       <c r="B69" s="3"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="5"/>
     </row>
@@ -2624,12 +2609,12 @@
       <c r="C449" s="5"/>
     </row>
     <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="2"/>
+      <c r="A450" s="4"/>
       <c r="B450" s="3"/>
       <c r="C450" s="5"/>
     </row>
     <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="2"/>
+      <c r="A451" s="4"/>
       <c r="B451" s="3"/>
       <c r="C451" s="5"/>
     </row>
@@ -2874,21 +2859,13 @@
       <c r="C499" s="5"/>
     </row>
     <row r="500" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="4"/>
       <c r="B500" s="3"/>
-      <c r="C500" s="5"/>
     </row>
     <row r="501" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="4"/>
       <c r="B501" s="3"/>
-      <c r="C501" s="5"/>
-    </row>
-    <row r="502" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B502" s="3"/>
-    </row>
-    <row r="503" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B503" s="3"/>
-    </row>
+    </row>
+    <row r="502" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="504" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="505" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="506" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/prompt_image.xlsx
+++ b/prompt_image.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931D35C-1FC0-4225-BDB3-0CAB86619CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4CF29-3FF7-4548-B5E4-675938507359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="960" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="1275" windowWidth="21720" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>STT</t>
   </si>
@@ -34,16 +34,7 @@
     <t>C:\Users\LYN HIEN\Downloads\photo_2025-09-09_08-56-44.jpg</t>
   </si>
   <si>
-    <t>1. The Shadow of the Steel Clan
-In a futuristic world where animal-human hybrids protect the last remnants of civilization, a small yet fierce warrior named Kaito stands ready for battle. Clad in a sleek black samurai outfit, Kaito is a member of the Steel Clan, a secret group of elite fighters. Known for his sharp reflexes and unparalleled combat skills, he is tasked with defending his city from a new wave of mechanized invaders. As tensions rise, Kaito discovers that the invaders are not just machines, but remnants of an ancient, forgotten enemy with ties to his own family. To protect the future of his people, Kaito must delve into his family’s dark past and confront the truth of his lineage.</t>
-  </si>
-  <si>
-    <t>2. The Last Samurai of Aether City
-Aether City, once a utopia, now lies in ruins. The technological advancements of its creators have led to chaos, and the once-thriving metropolis is a shadow of its former self. Amid the ruins, a young warrior known only as Taro, wearing a reflective armor and carrying a katana, searches for the secrets hidden deep within the city. With a mission to restore peace, Taro is the last of a forgotten order of samurai who once maintained the balance of technology and nature. Now, he must face rival factions who seek to control the remnants of the city's advanced tech, and battle against those who wish to use the power to reshape the world in their own image.</t>
-  </si>
-  <si>
-    <t>3. The Cyberninja Uprising
-In the neon-lit streets of Neo-Tokyo, the underworld thrives under the control of powerful corporations. However, a group of rebels known as the Cyberninjas are determined to bring down the corrupt empire. Among them is a warrior named Sora, a genetically-enhanced mouse-like fighter who was once a corporate enforcer but turned against his creators after uncovering their dark secrets. Donned in a sleek, black samurai robe, Sora leads the charge in an epic fight to liberate the people of Neo-Tokyo. As he fights for freedom, Sora must confront his own internal struggles about loyalty, identity, and the fine line between man and machine.</t>
+    <t>animation</t>
   </si>
 </sst>
 </file>
@@ -125,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,9 +140,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -372,7 +360,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -411,8 +399,8 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>5</v>
+      <c r="B3" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -422,8 +410,8 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
